--- a/data/output/FV2404_FV2310/UTILMD/55187.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55187.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9825" uniqueCount="553">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9846" uniqueCount="553">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1877,6 +1877,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U439" totalsRowShown="0">
+  <autoFilter ref="A1:U439"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2166,7 +2196,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U439"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -22970,5 +23003,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55187.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55187.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11956" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11782" uniqueCount="980">
   <si>
     <t>#</t>
   </si>
@@ -10151,46 +10151,44 @@
       <c r="V126" s="9"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2" t="s">
+      <c r="C127" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K127" s="2" t="s">
+      <c r="K127" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L127" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M127" s="2" t="s">
+      <c r="L127" s="7"/>
+      <c r="M127" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N127" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-      <c r="U127" s="2" t="s">
+      <c r="N127" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V127" s="2" t="s">
+      <c r="V127" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -10357,46 +10355,44 @@
       <c r="V130" s="2"/>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2" t="s">
+      <c r="C131" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="L131" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M131" s="2" t="s">
+      <c r="L131" s="7"/>
+      <c r="M131" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N131" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
-      <c r="T131" s="2"/>
-      <c r="U131" s="2" t="s">
+      <c r="N131" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5"/>
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V131" s="2" t="s">
+      <c r="V131" s="5" t="s">
         <v>407</v>
       </c>
     </row>
@@ -10563,46 +10559,44 @@
       <c r="V134" s="2"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2" t="s">
+      <c r="C135" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L135" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M135" s="2" t="s">
+      <c r="L135" s="7"/>
+      <c r="M135" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N135" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O135" s="2"/>
-      <c r="P135" s="2"/>
-      <c r="Q135" s="2"/>
-      <c r="R135" s="2"/>
-      <c r="S135" s="2"/>
-      <c r="T135" s="2"/>
-      <c r="U135" s="2" t="s">
+      <c r="N135" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="5"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V135" s="2" t="s">
+      <c r="V135" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -10769,46 +10763,44 @@
       <c r="V138" s="2"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2" t="s">
+      <c r="C139" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="K139" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="L139" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M139" s="2" t="s">
+      <c r="L139" s="7"/>
+      <c r="M139" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N139" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2" t="s">
+      <c r="N139" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V139" s="2" t="s">
+      <c r="V139" s="5" t="s">
         <v>408</v>
       </c>
     </row>
@@ -11083,46 +11075,44 @@
       <c r="V144" s="2"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2" t="s">
+      <c r="C145" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L145" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M145" s="2" t="s">
+      <c r="L145" s="7"/>
+      <c r="M145" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N145" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
-      <c r="U145" s="2" t="s">
+      <c r="N145" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V145" s="2" t="s">
+      <c r="V145" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -11366,9 +11356,7 @@
         <v>357</v>
       </c>
       <c r="K150" s="2"/>
-      <c r="L150" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L150" s="7"/>
       <c r="M150" s="2" t="s">
         <v>54</v>
       </c>
@@ -11422,9 +11410,7 @@
         <v>357</v>
       </c>
       <c r="K151" s="2"/>
-      <c r="L151" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L151" s="7"/>
       <c r="M151" s="2" t="s">
         <v>54</v>
       </c>
@@ -11478,9 +11464,7 @@
         <v>357</v>
       </c>
       <c r="K152" s="2"/>
-      <c r="L152" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L152" s="7"/>
       <c r="M152" s="2" t="s">
         <v>54</v>
       </c>
@@ -11642,9 +11626,7 @@
         <v>357</v>
       </c>
       <c r="K155" s="2"/>
-      <c r="L155" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L155" s="7"/>
       <c r="M155" s="2" t="s">
         <v>55</v>
       </c>
@@ -11700,9 +11682,7 @@
       <c r="K156" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="L156" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L156" s="7"/>
       <c r="M156" s="2" t="s">
         <v>55</v>
       </c>
@@ -11731,46 +11711,44 @@
       </c>
     </row>
     <row r="157" spans="1:22">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2" t="s">
+      <c r="C157" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="K157" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L157" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M157" s="2" t="s">
+      <c r="L157" s="7"/>
+      <c r="M157" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N157" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
-      <c r="T157" s="2"/>
-      <c r="U157" s="2" t="s">
+      <c r="N157" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V157" s="2" t="s">
+      <c r="V157" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -11968,9 +11946,7 @@
         <v>357</v>
       </c>
       <c r="K161" s="2"/>
-      <c r="L161" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L161" s="7"/>
       <c r="M161" s="2" t="s">
         <v>56</v>
       </c>
@@ -11997,46 +11973,44 @@
       <c r="V161" s="2"/>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2" t="s">
+      <c r="C162" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K162" s="2" t="s">
+      <c r="K162" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L162" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M162" s="2" t="s">
+      <c r="L162" s="7"/>
+      <c r="M162" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N162" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="2"/>
-      <c r="S162" s="2"/>
-      <c r="T162" s="2"/>
-      <c r="U162" s="2" t="s">
+      <c r="N162" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="5"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V162" s="2" t="s">
+      <c r="V162" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -12176,9 +12150,7 @@
         <v>357</v>
       </c>
       <c r="K165" s="2"/>
-      <c r="L165" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L165" s="7"/>
       <c r="M165" s="2" t="s">
         <v>57</v>
       </c>
@@ -12340,9 +12312,7 @@
         <v>360</v>
       </c>
       <c r="K168" s="2"/>
-      <c r="L168" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L168" s="7"/>
       <c r="M168" s="2" t="s">
         <v>58</v>
       </c>
@@ -12396,9 +12366,7 @@
         <v>360</v>
       </c>
       <c r="K169" s="2"/>
-      <c r="L169" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L169" s="7"/>
       <c r="M169" s="2" t="s">
         <v>58</v>
       </c>
@@ -12625,46 +12593,44 @@
       <c r="V174" s="2"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2" t="s">
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="K175" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="L175" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M175" s="2" t="s">
+      <c r="L175" s="7"/>
+      <c r="M175" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N175" s="2" t="s">
+      <c r="N175" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-      <c r="Q175" s="2"/>
-      <c r="R175" s="2"/>
-      <c r="S175" s="2"/>
-      <c r="T175" s="2"/>
-      <c r="U175" s="2" t="s">
+      <c r="O175" s="5"/>
+      <c r="P175" s="5"/>
+      <c r="Q175" s="5"/>
+      <c r="R175" s="5"/>
+      <c r="S175" s="5"/>
+      <c r="T175" s="5"/>
+      <c r="U175" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V175" s="2" t="s">
+      <c r="V175" s="5" t="s">
         <v>413</v>
       </c>
     </row>
@@ -12939,46 +12905,44 @@
       </c>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2" t="s">
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="K181" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="L181" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M181" s="2" t="s">
+      <c r="L181" s="7"/>
+      <c r="M181" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N181" s="2" t="s">
+      <c r="N181" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
-      <c r="Q181" s="2"/>
-      <c r="R181" s="2"/>
-      <c r="S181" s="2"/>
-      <c r="T181" s="2"/>
-      <c r="U181" s="2" t="s">
+      <c r="O181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="5"/>
+      <c r="S181" s="5"/>
+      <c r="T181" s="5"/>
+      <c r="U181" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V181" s="2" t="s">
+      <c r="V181" s="5" t="s">
         <v>414</v>
       </c>
     </row>
@@ -13118,9 +13082,7 @@
         <v>357</v>
       </c>
       <c r="K184" s="2"/>
-      <c r="L184" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L184" s="7"/>
       <c r="M184" s="2" t="s">
         <v>42</v>
       </c>
@@ -13174,9 +13136,7 @@
         <v>357</v>
       </c>
       <c r="K185" s="2"/>
-      <c r="L185" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L185" s="7"/>
       <c r="M185" s="2" t="s">
         <v>42</v>
       </c>
@@ -13346,9 +13306,7 @@
         <v>357</v>
       </c>
       <c r="K188" s="2"/>
-      <c r="L188" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L188" s="7"/>
       <c r="M188" s="2" t="s">
         <v>42</v>
       </c>
@@ -13402,9 +13360,7 @@
         <v>357</v>
       </c>
       <c r="K189" s="2"/>
-      <c r="L189" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L189" s="7"/>
       <c r="M189" s="2" t="s">
         <v>42</v>
       </c>
@@ -13431,46 +13387,44 @@
       <c r="V189" s="2"/>
     </row>
     <row r="190" spans="1:22">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
-      <c r="J190" s="2" t="s">
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K190" s="2" t="s">
+      <c r="K190" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="L190" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M190" s="2" t="s">
+      <c r="L190" s="7"/>
+      <c r="M190" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N190" s="2" t="s">
+      <c r="N190" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O190" s="2"/>
-      <c r="P190" s="2"/>
-      <c r="Q190" s="2"/>
-      <c r="R190" s="2"/>
-      <c r="S190" s="2"/>
-      <c r="T190" s="2"/>
-      <c r="U190" s="2" t="s">
+      <c r="O190" s="5"/>
+      <c r="P190" s="5"/>
+      <c r="Q190" s="5"/>
+      <c r="R190" s="5"/>
+      <c r="S190" s="5"/>
+      <c r="T190" s="5"/>
+      <c r="U190" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V190" s="2" t="s">
+      <c r="V190" s="5" t="s">
         <v>414</v>
       </c>
     </row>
@@ -13699,46 +13653,44 @@
       <c r="V194" s="2"/>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
-      <c r="J195" s="2" t="s">
+      <c r="C195" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K195" s="2" t="s">
+      <c r="K195" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L195" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M195" s="2" t="s">
+      <c r="L195" s="7"/>
+      <c r="M195" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N195" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O195" s="2"/>
-      <c r="P195" s="2"/>
-      <c r="Q195" s="2"/>
-      <c r="R195" s="2"/>
-      <c r="S195" s="2"/>
-      <c r="T195" s="2"/>
-      <c r="U195" s="2" t="s">
+      <c r="N195" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O195" s="5"/>
+      <c r="P195" s="5"/>
+      <c r="Q195" s="5"/>
+      <c r="R195" s="5"/>
+      <c r="S195" s="5"/>
+      <c r="T195" s="5"/>
+      <c r="U195" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V195" s="2" t="s">
+      <c r="V195" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -13905,46 +13857,44 @@
       <c r="V198" s="2"/>
     </row>
     <row r="199" spans="1:22">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2" t="s">
+      <c r="C199" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K199" s="2" t="s">
+      <c r="K199" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="L199" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M199" s="2" t="s">
+      <c r="L199" s="7"/>
+      <c r="M199" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N199" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O199" s="2"/>
-      <c r="P199" s="2"/>
-      <c r="Q199" s="2"/>
-      <c r="R199" s="2"/>
-      <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="2" t="s">
+      <c r="N199" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O199" s="5"/>
+      <c r="P199" s="5"/>
+      <c r="Q199" s="5"/>
+      <c r="R199" s="5"/>
+      <c r="S199" s="5"/>
+      <c r="T199" s="5"/>
+      <c r="U199" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V199" s="2" t="s">
+      <c r="V199" s="5" t="s">
         <v>414</v>
       </c>
     </row>
@@ -14111,46 +14061,44 @@
       <c r="V202" s="2"/>
     </row>
     <row r="203" spans="1:22">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
-      <c r="J203" s="2" t="s">
+      <c r="C203" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K203" s="2" t="s">
+      <c r="K203" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L203" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M203" s="2" t="s">
+      <c r="L203" s="7"/>
+      <c r="M203" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N203" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O203" s="2"/>
-      <c r="P203" s="2"/>
-      <c r="Q203" s="2"/>
-      <c r="R203" s="2"/>
-      <c r="S203" s="2"/>
-      <c r="T203" s="2"/>
-      <c r="U203" s="2" t="s">
+      <c r="N203" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O203" s="5"/>
+      <c r="P203" s="5"/>
+      <c r="Q203" s="5"/>
+      <c r="R203" s="5"/>
+      <c r="S203" s="5"/>
+      <c r="T203" s="5"/>
+      <c r="U203" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V203" s="2" t="s">
+      <c r="V203" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -14317,46 +14265,44 @@
       <c r="V206" s="2"/>
     </row>
     <row r="207" spans="1:22">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="2"/>
-      <c r="J207" s="2" t="s">
+      <c r="C207" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K207" s="2" t="s">
+      <c r="K207" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L207" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M207" s="2" t="s">
+      <c r="L207" s="7"/>
+      <c r="M207" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N207" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O207" s="2"/>
-      <c r="P207" s="2"/>
-      <c r="Q207" s="2"/>
-      <c r="R207" s="2"/>
-      <c r="S207" s="2"/>
-      <c r="T207" s="2"/>
-      <c r="U207" s="2" t="s">
+      <c r="N207" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O207" s="5"/>
+      <c r="P207" s="5"/>
+      <c r="Q207" s="5"/>
+      <c r="R207" s="5"/>
+      <c r="S207" s="5"/>
+      <c r="T207" s="5"/>
+      <c r="U207" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V207" s="2" t="s">
+      <c r="V207" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -14627,46 +14573,44 @@
       <c r="V212" s="2"/>
     </row>
     <row r="213" spans="1:22">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2" t="s">
+      <c r="C213" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K213" s="2" t="s">
+      <c r="K213" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L213" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M213" s="2" t="s">
+      <c r="L213" s="7"/>
+      <c r="M213" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N213" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="2"/>
-      <c r="S213" s="2"/>
-      <c r="T213" s="2"/>
-      <c r="U213" s="2" t="s">
+      <c r="N213" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O213" s="5"/>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="5"/>
+      <c r="S213" s="5"/>
+      <c r="T213" s="5"/>
+      <c r="U213" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V213" s="2" t="s">
+      <c r="V213" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -14910,9 +14854,7 @@
         <v>357</v>
       </c>
       <c r="K218" s="2"/>
-      <c r="L218" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L218" s="7"/>
       <c r="M218" s="2" t="s">
         <v>54</v>
       </c>
@@ -14966,9 +14908,7 @@
         <v>357</v>
       </c>
       <c r="K219" s="2"/>
-      <c r="L219" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L219" s="7"/>
       <c r="M219" s="2" t="s">
         <v>54</v>
       </c>
@@ -15022,9 +14962,7 @@
         <v>357</v>
       </c>
       <c r="K220" s="2"/>
-      <c r="L220" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L220" s="7"/>
       <c r="M220" s="2" t="s">
         <v>54</v>
       </c>
@@ -15186,9 +15124,7 @@
         <v>357</v>
       </c>
       <c r="K223" s="2"/>
-      <c r="L223" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L223" s="7"/>
       <c r="M223" s="2" t="s">
         <v>55</v>
       </c>
@@ -15242,9 +15178,7 @@
         <v>357</v>
       </c>
       <c r="K224" s="2"/>
-      <c r="L224" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L224" s="7"/>
       <c r="M224" s="2" t="s">
         <v>55</v>
       </c>
@@ -15271,46 +15205,44 @@
       <c r="V224" s="2"/>
     </row>
     <row r="225" spans="1:22">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2" t="s">
+      <c r="C225" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K225" s="2" t="s">
+      <c r="K225" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L225" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M225" s="2" t="s">
+      <c r="L225" s="7"/>
+      <c r="M225" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N225" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
-      <c r="Q225" s="2"/>
-      <c r="R225" s="2"/>
-      <c r="S225" s="2"/>
-      <c r="T225" s="2"/>
-      <c r="U225" s="2" t="s">
+      <c r="N225" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O225" s="5"/>
+      <c r="P225" s="5"/>
+      <c r="Q225" s="5"/>
+      <c r="R225" s="5"/>
+      <c r="S225" s="5"/>
+      <c r="T225" s="5"/>
+      <c r="U225" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V225" s="2" t="s">
+      <c r="V225" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -15508,9 +15440,7 @@
         <v>357</v>
       </c>
       <c r="K229" s="2"/>
-      <c r="L229" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L229" s="7"/>
       <c r="M229" s="2" t="s">
         <v>56</v>
       </c>
@@ -15537,46 +15467,44 @@
       <c r="V229" s="2"/>
     </row>
     <row r="230" spans="1:22">
-      <c r="A230" s="2" t="s">
+      <c r="A230" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2" t="s">
+      <c r="C230" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K230" s="2" t="s">
+      <c r="K230" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L230" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M230" s="2" t="s">
+      <c r="L230" s="7"/>
+      <c r="M230" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N230" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O230" s="2"/>
-      <c r="P230" s="2"/>
-      <c r="Q230" s="2"/>
-      <c r="R230" s="2"/>
-      <c r="S230" s="2"/>
-      <c r="T230" s="2"/>
-      <c r="U230" s="2" t="s">
+      <c r="N230" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O230" s="5"/>
+      <c r="P230" s="5"/>
+      <c r="Q230" s="5"/>
+      <c r="R230" s="5"/>
+      <c r="S230" s="5"/>
+      <c r="T230" s="5"/>
+      <c r="U230" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V230" s="2" t="s">
+      <c r="V230" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -15718,9 +15646,7 @@
       <c r="K233" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="L233" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L233" s="7"/>
       <c r="M233" s="2" t="s">
         <v>57</v>
       </c>
@@ -15884,9 +15810,7 @@
         <v>360</v>
       </c>
       <c r="K236" s="2"/>
-      <c r="L236" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L236" s="7"/>
       <c r="M236" s="2" t="s">
         <v>58</v>
       </c>
@@ -15940,9 +15864,7 @@
         <v>360</v>
       </c>
       <c r="K237" s="2"/>
-      <c r="L237" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L237" s="7"/>
       <c r="M237" s="2" t="s">
         <v>58</v>
       </c>
@@ -16167,46 +16089,44 @@
       <c r="V242" s="2"/>
     </row>
     <row r="243" spans="1:22">
-      <c r="A243" s="2" t="s">
+      <c r="A243" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
-      <c r="J243" s="2" t="s">
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K243" s="2" t="s">
+      <c r="K243" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="L243" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M243" s="2" t="s">
+      <c r="L243" s="7"/>
+      <c r="M243" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N243" s="2" t="s">
+      <c r="N243" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O243" s="2"/>
-      <c r="P243" s="2"/>
-      <c r="Q243" s="2"/>
-      <c r="R243" s="2"/>
-      <c r="S243" s="2"/>
-      <c r="T243" s="2"/>
-      <c r="U243" s="2" t="s">
+      <c r="O243" s="5"/>
+      <c r="P243" s="5"/>
+      <c r="Q243" s="5"/>
+      <c r="R243" s="5"/>
+      <c r="S243" s="5"/>
+      <c r="T243" s="5"/>
+      <c r="U243" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V243" s="2" t="s">
+      <c r="V243" s="5" t="s">
         <v>416</v>
       </c>
     </row>
@@ -16701,46 +16621,44 @@
       <c r="V252" s="2"/>
     </row>
     <row r="253" spans="1:22">
-      <c r="A253" s="2" t="s">
+      <c r="A253" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="2"/>
-      <c r="J253" s="2" t="s">
+      <c r="C253" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
+      <c r="I253" s="5"/>
+      <c r="J253" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K253" s="2" t="s">
+      <c r="K253" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L253" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M253" s="2" t="s">
+      <c r="L253" s="7"/>
+      <c r="M253" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N253" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O253" s="2"/>
-      <c r="P253" s="2"/>
-      <c r="Q253" s="2"/>
-      <c r="R253" s="2"/>
-      <c r="S253" s="2"/>
-      <c r="T253" s="2"/>
-      <c r="U253" s="2" t="s">
+      <c r="N253" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O253" s="5"/>
+      <c r="P253" s="5"/>
+      <c r="Q253" s="5"/>
+      <c r="R253" s="5"/>
+      <c r="S253" s="5"/>
+      <c r="T253" s="5"/>
+      <c r="U253" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V253" s="2" t="s">
+      <c r="V253" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -16961,46 +16879,44 @@
       <c r="V257" s="2"/>
     </row>
     <row r="258" spans="1:22">
-      <c r="A258" s="2" t="s">
+      <c r="A258" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2"/>
-      <c r="I258" s="2"/>
-      <c r="J258" s="2" t="s">
+      <c r="C258" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K258" s="2" t="s">
+      <c r="K258" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L258" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M258" s="2" t="s">
+      <c r="L258" s="7"/>
+      <c r="M258" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N258" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O258" s="2"/>
-      <c r="P258" s="2"/>
-      <c r="Q258" s="2"/>
-      <c r="R258" s="2"/>
-      <c r="S258" s="2"/>
-      <c r="T258" s="2"/>
-      <c r="U258" s="2" t="s">
+      <c r="N258" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O258" s="5"/>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="5"/>
+      <c r="R258" s="5"/>
+      <c r="S258" s="5"/>
+      <c r="T258" s="5"/>
+      <c r="U258" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V258" s="2" t="s">
+      <c r="V258" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -17248,9 +17164,7 @@
         <v>377</v>
       </c>
       <c r="K263" s="2"/>
-      <c r="L263" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L263" s="7"/>
       <c r="M263" s="2" t="s">
         <v>64</v>
       </c>
@@ -17277,46 +17191,44 @@
       <c r="V263" s="2"/>
     </row>
     <row r="264" spans="1:22">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2" t="s">
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K264" s="2" t="s">
+      <c r="K264" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="L264" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M264" s="2" t="s">
+      <c r="L264" s="7"/>
+      <c r="M264" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N264" s="2" t="s">
+      <c r="N264" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O264" s="2"/>
-      <c r="P264" s="2"/>
-      <c r="Q264" s="2"/>
-      <c r="R264" s="2"/>
-      <c r="S264" s="2"/>
-      <c r="T264" s="2"/>
-      <c r="U264" s="2" t="s">
+      <c r="O264" s="5"/>
+      <c r="P264" s="5"/>
+      <c r="Q264" s="5"/>
+      <c r="R264" s="5"/>
+      <c r="S264" s="5"/>
+      <c r="T264" s="5"/>
+      <c r="U264" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V264" s="2" t="s">
+      <c r="V264" s="5" t="s">
         <v>418</v>
       </c>
     </row>
@@ -17645,44 +17557,42 @@
       <c r="V270" s="2"/>
     </row>
     <row r="271" spans="1:22">
-      <c r="A271" s="2" t="s">
+      <c r="A271" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2" t="s">
+      <c r="C271" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="K271" s="2"/>
-      <c r="L271" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M271" s="2" t="s">
+      <c r="K271" s="5"/>
+      <c r="L271" s="7"/>
+      <c r="M271" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N271" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
-      <c r="Q271" s="2"/>
-      <c r="R271" s="2"/>
-      <c r="S271" s="2"/>
-      <c r="T271" s="2"/>
-      <c r="U271" s="2" t="s">
+      <c r="N271" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O271" s="5"/>
+      <c r="P271" s="5"/>
+      <c r="Q271" s="5"/>
+      <c r="R271" s="5"/>
+      <c r="S271" s="5"/>
+      <c r="T271" s="5"/>
+      <c r="U271" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="V271" s="2"/>
+      <c r="V271" s="5"/>
     </row>
     <row r="272" spans="1:22">
       <c r="A272" s="2" t="s">
@@ -17893,46 +17803,44 @@
       <c r="V275" s="2"/>
     </row>
     <row r="276" spans="1:22">
-      <c r="A276" s="2" t="s">
+      <c r="A276" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
-      <c r="J276" s="2" t="s">
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="5"/>
+      <c r="J276" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K276" s="2" t="s">
+      <c r="K276" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="L276" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M276" s="2" t="s">
+      <c r="L276" s="7"/>
+      <c r="M276" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N276" s="2" t="s">
+      <c r="N276" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O276" s="2"/>
-      <c r="P276" s="2"/>
-      <c r="Q276" s="2"/>
-      <c r="R276" s="2"/>
-      <c r="S276" s="2"/>
-      <c r="T276" s="2"/>
-      <c r="U276" s="2" t="s">
+      <c r="O276" s="5"/>
+      <c r="P276" s="5"/>
+      <c r="Q276" s="5"/>
+      <c r="R276" s="5"/>
+      <c r="S276" s="5"/>
+      <c r="T276" s="5"/>
+      <c r="U276" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V276" s="2" t="s">
+      <c r="V276" s="5" t="s">
         <v>419</v>
       </c>
     </row>
@@ -18203,46 +18111,44 @@
       </c>
     </row>
     <row r="282" spans="1:22">
-      <c r="A282" s="2" t="s">
+      <c r="A282" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2"/>
-      <c r="I282" s="2"/>
-      <c r="J282" s="2" t="s">
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
+      <c r="I282" s="5"/>
+      <c r="J282" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K282" s="2" t="s">
+      <c r="K282" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="L282" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M282" s="2" t="s">
+      <c r="L282" s="7"/>
+      <c r="M282" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N282" s="2" t="s">
+      <c r="N282" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O282" s="2"/>
-      <c r="P282" s="2"/>
-      <c r="Q282" s="2"/>
-      <c r="R282" s="2"/>
-      <c r="S282" s="2"/>
-      <c r="T282" s="2"/>
-      <c r="U282" s="2" t="s">
+      <c r="O282" s="5"/>
+      <c r="P282" s="5"/>
+      <c r="Q282" s="5"/>
+      <c r="R282" s="5"/>
+      <c r="S282" s="5"/>
+      <c r="T282" s="5"/>
+      <c r="U282" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V282" s="2" t="s">
+      <c r="V282" s="5" t="s">
         <v>420</v>
       </c>
     </row>
@@ -18471,46 +18377,44 @@
       <c r="V286" s="2"/>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="2"/>
-      <c r="J287" s="2" t="s">
+      <c r="C287" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K287" s="2" t="s">
+      <c r="K287" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L287" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M287" s="2" t="s">
+      <c r="L287" s="7"/>
+      <c r="M287" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N287" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O287" s="2"/>
-      <c r="P287" s="2"/>
-      <c r="Q287" s="2"/>
-      <c r="R287" s="2"/>
-      <c r="S287" s="2"/>
-      <c r="T287" s="2"/>
-      <c r="U287" s="2" t="s">
+      <c r="N287" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O287" s="5"/>
+      <c r="P287" s="5"/>
+      <c r="Q287" s="5"/>
+      <c r="R287" s="5"/>
+      <c r="S287" s="5"/>
+      <c r="T287" s="5"/>
+      <c r="U287" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V287" s="2" t="s">
+      <c r="V287" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -18781,46 +18685,44 @@
       <c r="V292" s="2"/>
     </row>
     <row r="293" spans="1:22">
-      <c r="A293" s="2" t="s">
+      <c r="A293" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
-      <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
-      <c r="I293" s="2"/>
-      <c r="J293" s="2" t="s">
+      <c r="C293" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K293" s="2" t="s">
+      <c r="K293" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L293" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M293" s="2" t="s">
+      <c r="L293" s="7"/>
+      <c r="M293" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N293" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O293" s="2"/>
-      <c r="P293" s="2"/>
-      <c r="Q293" s="2"/>
-      <c r="R293" s="2"/>
-      <c r="S293" s="2"/>
-      <c r="T293" s="2"/>
-      <c r="U293" s="2" t="s">
+      <c r="N293" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O293" s="5"/>
+      <c r="P293" s="5"/>
+      <c r="Q293" s="5"/>
+      <c r="R293" s="5"/>
+      <c r="S293" s="5"/>
+      <c r="T293" s="5"/>
+      <c r="U293" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V293" s="2" t="s">
+      <c r="V293" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -18987,46 +18889,44 @@
       <c r="V296" s="2"/>
     </row>
     <row r="297" spans="1:22">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C297" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="2"/>
-      <c r="J297" s="2" t="s">
+      <c r="C297" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K297" s="2" t="s">
+      <c r="K297" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L297" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M297" s="2" t="s">
+      <c r="L297" s="7"/>
+      <c r="M297" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N297" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O297" s="2"/>
-      <c r="P297" s="2"/>
-      <c r="Q297" s="2"/>
-      <c r="R297" s="2"/>
-      <c r="S297" s="2"/>
-      <c r="T297" s="2"/>
-      <c r="U297" s="2" t="s">
+      <c r="N297" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O297" s="5"/>
+      <c r="P297" s="5"/>
+      <c r="Q297" s="5"/>
+      <c r="R297" s="5"/>
+      <c r="S297" s="5"/>
+      <c r="T297" s="5"/>
+      <c r="U297" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V297" s="2" t="s">
+      <c r="V297" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -19224,9 +19124,7 @@
         <v>357</v>
       </c>
       <c r="K301" s="2"/>
-      <c r="L301" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L301" s="7"/>
       <c r="M301" s="2" t="s">
         <v>70</v>
       </c>
@@ -19253,46 +19151,44 @@
       <c r="V301" s="2"/>
     </row>
     <row r="302" spans="1:22">
-      <c r="A302" s="2" t="s">
+      <c r="A302" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C302" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D302" s="2"/>
-      <c r="E302" s="2"/>
-      <c r="F302" s="2"/>
-      <c r="G302" s="2"/>
-      <c r="H302" s="2"/>
-      <c r="I302" s="2"/>
-      <c r="J302" s="2" t="s">
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="5"/>
+      <c r="J302" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K302" s="2" t="s">
+      <c r="K302" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="L302" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M302" s="2" t="s">
+      <c r="L302" s="7"/>
+      <c r="M302" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N302" s="2" t="s">
+      <c r="N302" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O302" s="2"/>
-      <c r="P302" s="2"/>
-      <c r="Q302" s="2"/>
-      <c r="R302" s="2"/>
-      <c r="S302" s="2"/>
-      <c r="T302" s="2"/>
-      <c r="U302" s="2" t="s">
+      <c r="O302" s="5"/>
+      <c r="P302" s="5"/>
+      <c r="Q302" s="5"/>
+      <c r="R302" s="5"/>
+      <c r="S302" s="5"/>
+      <c r="T302" s="5"/>
+      <c r="U302" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V302" s="2" t="s">
+      <c r="V302" s="5" t="s">
         <v>414</v>
       </c>
     </row>
@@ -19401,44 +19297,42 @@
       <c r="V304" s="2"/>
     </row>
     <row r="305" spans="1:22">
-      <c r="A305" s="2" t="s">
+      <c r="A305" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C305" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D305" s="2"/>
-      <c r="E305" s="2"/>
-      <c r="F305" s="2"/>
-      <c r="G305" s="2"/>
-      <c r="H305" s="2"/>
-      <c r="I305" s="2"/>
-      <c r="J305" s="2" t="s">
+      <c r="C305" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D305" s="5"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="5"/>
+      <c r="I305" s="5"/>
+      <c r="J305" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="K305" s="2"/>
-      <c r="L305" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M305" s="2" t="s">
+      <c r="K305" s="5"/>
+      <c r="L305" s="7"/>
+      <c r="M305" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N305" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O305" s="2"/>
-      <c r="P305" s="2"/>
-      <c r="Q305" s="2"/>
-      <c r="R305" s="2"/>
-      <c r="S305" s="2"/>
-      <c r="T305" s="2"/>
-      <c r="U305" s="2" t="s">
+      <c r="N305" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O305" s="5"/>
+      <c r="P305" s="5"/>
+      <c r="Q305" s="5"/>
+      <c r="R305" s="5"/>
+      <c r="S305" s="5"/>
+      <c r="T305" s="5"/>
+      <c r="U305" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="V305" s="2"/>
+      <c r="V305" s="5"/>
     </row>
     <row r="306" spans="1:22">
       <c r="A306" s="2" t="s">
@@ -19603,46 +19497,44 @@
       <c r="V308" s="2"/>
     </row>
     <row r="309" spans="1:22">
-      <c r="A309" s="2" t="s">
+      <c r="A309" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D309" s="2"/>
-      <c r="E309" s="2"/>
-      <c r="F309" s="2"/>
-      <c r="G309" s="2"/>
-      <c r="H309" s="2"/>
-      <c r="I309" s="2"/>
-      <c r="J309" s="2" t="s">
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="5"/>
+      <c r="J309" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K309" s="2" t="s">
+      <c r="K309" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="L309" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M309" s="2" t="s">
+      <c r="L309" s="7"/>
+      <c r="M309" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N309" s="2" t="s">
+      <c r="N309" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O309" s="2"/>
-      <c r="P309" s="2"/>
-      <c r="Q309" s="2"/>
-      <c r="R309" s="2"/>
-      <c r="S309" s="2"/>
-      <c r="T309" s="2"/>
-      <c r="U309" s="2" t="s">
+      <c r="O309" s="5"/>
+      <c r="P309" s="5"/>
+      <c r="Q309" s="5"/>
+      <c r="R309" s="5"/>
+      <c r="S309" s="5"/>
+      <c r="T309" s="5"/>
+      <c r="U309" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V309" s="2" t="s">
+      <c r="V309" s="5" t="s">
         <v>422</v>
       </c>
     </row>
@@ -20137,46 +20029,44 @@
       <c r="V318" s="2"/>
     </row>
     <row r="319" spans="1:22">
-      <c r="A319" s="2" t="s">
+      <c r="A319" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C319" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D319" s="2"/>
-      <c r="E319" s="2"/>
-      <c r="F319" s="2"/>
-      <c r="G319" s="2"/>
-      <c r="H319" s="2"/>
-      <c r="I319" s="2"/>
-      <c r="J319" s="2" t="s">
+      <c r="C319" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D319" s="5"/>
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="5"/>
+      <c r="I319" s="5"/>
+      <c r="J319" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K319" s="2" t="s">
+      <c r="K319" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L319" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M319" s="2" t="s">
+      <c r="L319" s="7"/>
+      <c r="M319" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N319" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O319" s="2"/>
-      <c r="P319" s="2"/>
-      <c r="Q319" s="2"/>
-      <c r="R319" s="2"/>
-      <c r="S319" s="2"/>
-      <c r="T319" s="2"/>
-      <c r="U319" s="2" t="s">
+      <c r="N319" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O319" s="5"/>
+      <c r="P319" s="5"/>
+      <c r="Q319" s="5"/>
+      <c r="R319" s="5"/>
+      <c r="S319" s="5"/>
+      <c r="T319" s="5"/>
+      <c r="U319" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V319" s="2" t="s">
+      <c r="V319" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -20397,46 +20287,44 @@
       <c r="V323" s="2"/>
     </row>
     <row r="324" spans="1:22">
-      <c r="A324" s="2" t="s">
+      <c r="A324" s="5" t="s">
         <v>864</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C324" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2"/>
-      <c r="F324" s="2"/>
-      <c r="G324" s="2"/>
-      <c r="H324" s="2"/>
-      <c r="I324" s="2"/>
-      <c r="J324" s="2" t="s">
+      <c r="C324" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="5"/>
+      <c r="I324" s="5"/>
+      <c r="J324" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K324" s="2" t="s">
+      <c r="K324" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L324" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M324" s="2" t="s">
+      <c r="L324" s="7"/>
+      <c r="M324" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N324" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O324" s="2"/>
-      <c r="P324" s="2"/>
-      <c r="Q324" s="2"/>
-      <c r="R324" s="2"/>
-      <c r="S324" s="2"/>
-      <c r="T324" s="2"/>
-      <c r="U324" s="2" t="s">
+      <c r="N324" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O324" s="5"/>
+      <c r="P324" s="5"/>
+      <c r="Q324" s="5"/>
+      <c r="R324" s="5"/>
+      <c r="S324" s="5"/>
+      <c r="T324" s="5"/>
+      <c r="U324" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V324" s="2" t="s">
+      <c r="V324" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -20684,9 +20572,7 @@
         <v>377</v>
       </c>
       <c r="K329" s="2"/>
-      <c r="L329" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L329" s="7"/>
       <c r="M329" s="2" t="s">
         <v>64</v>
       </c>
@@ -20713,46 +20599,44 @@
       <c r="V329" s="2"/>
     </row>
     <row r="330" spans="1:22">
-      <c r="A330" s="2" t="s">
+      <c r="A330" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B330" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C330" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D330" s="2"/>
-      <c r="E330" s="2"/>
-      <c r="F330" s="2"/>
-      <c r="G330" s="2"/>
-      <c r="H330" s="2"/>
-      <c r="I330" s="2"/>
-      <c r="J330" s="2" t="s">
+      <c r="D330" s="5"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="5"/>
+      <c r="I330" s="5"/>
+      <c r="J330" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K330" s="2" t="s">
+      <c r="K330" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="L330" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M330" s="2" t="s">
+      <c r="L330" s="7"/>
+      <c r="M330" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N330" s="2" t="s">
+      <c r="N330" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O330" s="2"/>
-      <c r="P330" s="2"/>
-      <c r="Q330" s="2"/>
-      <c r="R330" s="2"/>
-      <c r="S330" s="2"/>
-      <c r="T330" s="2"/>
-      <c r="U330" s="2" t="s">
+      <c r="O330" s="5"/>
+      <c r="P330" s="5"/>
+      <c r="Q330" s="5"/>
+      <c r="R330" s="5"/>
+      <c r="S330" s="5"/>
+      <c r="T330" s="5"/>
+      <c r="U330" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V330" s="2" t="s">
+      <c r="V330" s="5" t="s">
         <v>414</v>
       </c>
     </row>
@@ -21081,44 +20965,42 @@
       <c r="V336" s="2"/>
     </row>
     <row r="337" spans="1:22">
-      <c r="A337" s="2" t="s">
+      <c r="A337" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D337" s="2"/>
-      <c r="E337" s="2"/>
-      <c r="F337" s="2"/>
-      <c r="G337" s="2"/>
-      <c r="H337" s="2"/>
-      <c r="I337" s="2"/>
-      <c r="J337" s="2" t="s">
+      <c r="C337" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D337" s="5"/>
+      <c r="E337" s="5"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="5"/>
+      <c r="H337" s="5"/>
+      <c r="I337" s="5"/>
+      <c r="J337" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="K337" s="2"/>
-      <c r="L337" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M337" s="2" t="s">
+      <c r="K337" s="5"/>
+      <c r="L337" s="7"/>
+      <c r="M337" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N337" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O337" s="2"/>
-      <c r="P337" s="2"/>
-      <c r="Q337" s="2"/>
-      <c r="R337" s="2"/>
-      <c r="S337" s="2"/>
-      <c r="T337" s="2"/>
-      <c r="U337" s="2" t="s">
+      <c r="N337" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O337" s="5"/>
+      <c r="P337" s="5"/>
+      <c r="Q337" s="5"/>
+      <c r="R337" s="5"/>
+      <c r="S337" s="5"/>
+      <c r="T337" s="5"/>
+      <c r="U337" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="V337" s="2"/>
+      <c r="V337" s="5"/>
     </row>
     <row r="338" spans="1:22">
       <c r="A338" s="2" t="s">
@@ -21333,46 +21215,44 @@
       <c r="V341" s="2"/>
     </row>
     <row r="342" spans="1:22">
-      <c r="A342" s="2" t="s">
+      <c r="A342" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C342" s="2" t="s">
+      <c r="C342" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D342" s="2"/>
-      <c r="E342" s="2"/>
-      <c r="F342" s="2"/>
-      <c r="G342" s="2"/>
-      <c r="H342" s="2"/>
-      <c r="I342" s="2"/>
-      <c r="J342" s="2" t="s">
+      <c r="D342" s="5"/>
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5"/>
+      <c r="H342" s="5"/>
+      <c r="I342" s="5"/>
+      <c r="J342" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K342" s="2" t="s">
+      <c r="K342" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="L342" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M342" s="2" t="s">
+      <c r="L342" s="7"/>
+      <c r="M342" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N342" s="2" t="s">
+      <c r="N342" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O342" s="2"/>
-      <c r="P342" s="2"/>
-      <c r="Q342" s="2"/>
-      <c r="R342" s="2"/>
-      <c r="S342" s="2"/>
-      <c r="T342" s="2"/>
-      <c r="U342" s="2" t="s">
+      <c r="O342" s="5"/>
+      <c r="P342" s="5"/>
+      <c r="Q342" s="5"/>
+      <c r="R342" s="5"/>
+      <c r="S342" s="5"/>
+      <c r="T342" s="5"/>
+      <c r="U342" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V342" s="2" t="s">
+      <c r="V342" s="5" t="s">
         <v>424</v>
       </c>
     </row>
@@ -21643,46 +21523,44 @@
       </c>
     </row>
     <row r="348" spans="1:22">
-      <c r="A348" s="2" t="s">
+      <c r="A348" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C348" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D348" s="2"/>
-      <c r="E348" s="2"/>
-      <c r="F348" s="2"/>
-      <c r="G348" s="2"/>
-      <c r="H348" s="2"/>
-      <c r="I348" s="2"/>
-      <c r="J348" s="2" t="s">
+      <c r="C348" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D348" s="5"/>
+      <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+      <c r="G348" s="5"/>
+      <c r="H348" s="5"/>
+      <c r="I348" s="5"/>
+      <c r="J348" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K348" s="2" t="s">
+      <c r="K348" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L348" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M348" s="2" t="s">
+      <c r="L348" s="7"/>
+      <c r="M348" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N348" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O348" s="2"/>
-      <c r="P348" s="2"/>
-      <c r="Q348" s="2"/>
-      <c r="R348" s="2"/>
-      <c r="S348" s="2"/>
-      <c r="T348" s="2"/>
-      <c r="U348" s="2" t="s">
+      <c r="N348" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O348" s="5"/>
+      <c r="P348" s="5"/>
+      <c r="Q348" s="5"/>
+      <c r="R348" s="5"/>
+      <c r="S348" s="5"/>
+      <c r="T348" s="5"/>
+      <c r="U348" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V348" s="2" t="s">
+      <c r="V348" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -21824,9 +21702,7 @@
       <c r="K351" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="L351" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L351" s="7"/>
       <c r="M351" s="2" t="s">
         <v>77</v>
       </c>
@@ -21942,9 +21818,7 @@
       <c r="K353" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="L353" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L353" s="7"/>
       <c r="M353" s="2" t="s">
         <v>77</v>
       </c>
@@ -22077,46 +21951,44 @@
       <c r="V355" s="2"/>
     </row>
     <row r="356" spans="1:22">
-      <c r="A356" s="2" t="s">
+      <c r="A356" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C356" s="2" t="s">
+      <c r="C356" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D356" s="2"/>
-      <c r="E356" s="2"/>
-      <c r="F356" s="2"/>
-      <c r="G356" s="2"/>
-      <c r="H356" s="2"/>
-      <c r="I356" s="2"/>
-      <c r="J356" s="2" t="s">
+      <c r="D356" s="5"/>
+      <c r="E356" s="5"/>
+      <c r="F356" s="5"/>
+      <c r="G356" s="5"/>
+      <c r="H356" s="5"/>
+      <c r="I356" s="5"/>
+      <c r="J356" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K356" s="2" t="s">
+      <c r="K356" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="L356" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M356" s="2" t="s">
+      <c r="L356" s="7"/>
+      <c r="M356" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N356" s="2" t="s">
+      <c r="N356" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O356" s="2"/>
-      <c r="P356" s="2"/>
-      <c r="Q356" s="2"/>
-      <c r="R356" s="2"/>
-      <c r="S356" s="2"/>
-      <c r="T356" s="2"/>
-      <c r="U356" s="2" t="s">
+      <c r="O356" s="5"/>
+      <c r="P356" s="5"/>
+      <c r="Q356" s="5"/>
+      <c r="R356" s="5"/>
+      <c r="S356" s="5"/>
+      <c r="T356" s="5"/>
+      <c r="U356" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V356" s="2" t="s">
+      <c r="V356" s="5" t="s">
         <v>414</v>
       </c>
     </row>
@@ -22225,44 +22097,42 @@
       <c r="V358" s="2"/>
     </row>
     <row r="359" spans="1:22">
-      <c r="A359" s="2" t="s">
+      <c r="A359" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C359" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
-      <c r="F359" s="2"/>
-      <c r="G359" s="2"/>
-      <c r="H359" s="2"/>
-      <c r="I359" s="2"/>
-      <c r="J359" s="2" t="s">
+      <c r="C359" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="5"/>
+      <c r="J359" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="K359" s="2"/>
-      <c r="L359" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M359" s="2" t="s">
+      <c r="K359" s="5"/>
+      <c r="L359" s="7"/>
+      <c r="M359" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N359" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O359" s="2"/>
-      <c r="P359" s="2"/>
-      <c r="Q359" s="2"/>
-      <c r="R359" s="2"/>
-      <c r="S359" s="2"/>
-      <c r="T359" s="2"/>
-      <c r="U359" s="2" t="s">
+      <c r="N359" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O359" s="5"/>
+      <c r="P359" s="5"/>
+      <c r="Q359" s="5"/>
+      <c r="R359" s="5"/>
+      <c r="S359" s="5"/>
+      <c r="T359" s="5"/>
+      <c r="U359" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="V359" s="2"/>
+      <c r="V359" s="5"/>
     </row>
     <row r="360" spans="1:22">
       <c r="A360" s="2" t="s">
@@ -22400,9 +22270,7 @@
         <v>357</v>
       </c>
       <c r="K362" s="2"/>
-      <c r="L362" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L362" s="7"/>
       <c r="M362" s="2" t="s">
         <v>77</v>
       </c>
@@ -22514,9 +22382,7 @@
         <v>357</v>
       </c>
       <c r="K364" s="2"/>
-      <c r="L364" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L364" s="7"/>
       <c r="M364" s="2" t="s">
         <v>77</v>
       </c>
@@ -22647,46 +22513,44 @@
       <c r="V366" s="2"/>
     </row>
     <row r="367" spans="1:22">
-      <c r="A367" s="2" t="s">
+      <c r="A367" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C367" s="2" t="s">
+      <c r="C367" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D367" s="2"/>
-      <c r="E367" s="2"/>
-      <c r="F367" s="2"/>
-      <c r="G367" s="2"/>
-      <c r="H367" s="2"/>
-      <c r="I367" s="2"/>
-      <c r="J367" s="2" t="s">
+      <c r="D367" s="5"/>
+      <c r="E367" s="5"/>
+      <c r="F367" s="5"/>
+      <c r="G367" s="5"/>
+      <c r="H367" s="5"/>
+      <c r="I367" s="5"/>
+      <c r="J367" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K367" s="2" t="s">
+      <c r="K367" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="L367" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M367" s="2" t="s">
+      <c r="L367" s="7"/>
+      <c r="M367" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N367" s="2" t="s">
+      <c r="N367" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O367" s="2"/>
-      <c r="P367" s="2"/>
-      <c r="Q367" s="2"/>
-      <c r="R367" s="2"/>
-      <c r="S367" s="2"/>
-      <c r="T367" s="2"/>
-      <c r="U367" s="2" t="s">
+      <c r="O367" s="5"/>
+      <c r="P367" s="5"/>
+      <c r="Q367" s="5"/>
+      <c r="R367" s="5"/>
+      <c r="S367" s="5"/>
+      <c r="T367" s="5"/>
+      <c r="U367" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V367" s="2" t="s">
+      <c r="V367" s="5" t="s">
         <v>427</v>
       </c>
     </row>
@@ -22957,46 +22821,44 @@
       </c>
     </row>
     <row r="373" spans="1:22">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="5" t="s">
         <v>913</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C373" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D373" s="2"/>
-      <c r="E373" s="2"/>
-      <c r="F373" s="2"/>
-      <c r="G373" s="2"/>
-      <c r="H373" s="2"/>
-      <c r="I373" s="2"/>
-      <c r="J373" s="2" t="s">
+      <c r="C373" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K373" s="2" t="s">
+      <c r="K373" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L373" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M373" s="2" t="s">
+      <c r="L373" s="7"/>
+      <c r="M373" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N373" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O373" s="2"/>
-      <c r="P373" s="2"/>
-      <c r="Q373" s="2"/>
-      <c r="R373" s="2"/>
-      <c r="S373" s="2"/>
-      <c r="T373" s="2"/>
-      <c r="U373" s="2" t="s">
+      <c r="N373" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O373" s="5"/>
+      <c r="P373" s="5"/>
+      <c r="Q373" s="5"/>
+      <c r="R373" s="5"/>
+      <c r="S373" s="5"/>
+      <c r="T373" s="5"/>
+      <c r="U373" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V373" s="2" t="s">
+      <c r="V373" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -23209,46 +23071,44 @@
       <c r="V377" s="2"/>
     </row>
     <row r="378" spans="1:22">
-      <c r="A378" s="2" t="s">
+      <c r="A378" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C378" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D378" s="2"/>
-      <c r="E378" s="2"/>
-      <c r="F378" s="2"/>
-      <c r="G378" s="2"/>
-      <c r="H378" s="2"/>
-      <c r="I378" s="2"/>
-      <c r="J378" s="2" t="s">
+      <c r="C378" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
+      <c r="G378" s="5"/>
+      <c r="H378" s="5"/>
+      <c r="I378" s="5"/>
+      <c r="J378" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K378" s="2" t="s">
+      <c r="K378" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L378" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M378" s="2" t="s">
+      <c r="L378" s="7"/>
+      <c r="M378" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N378" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O378" s="2"/>
-      <c r="P378" s="2"/>
-      <c r="Q378" s="2"/>
-      <c r="R378" s="2"/>
-      <c r="S378" s="2"/>
-      <c r="T378" s="2"/>
-      <c r="U378" s="2" t="s">
+      <c r="N378" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O378" s="5"/>
+      <c r="P378" s="5"/>
+      <c r="Q378" s="5"/>
+      <c r="R378" s="5"/>
+      <c r="S378" s="5"/>
+      <c r="T378" s="5"/>
+      <c r="U378" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V378" s="2" t="s">
+      <c r="V378" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -23390,9 +23250,7 @@
       <c r="K381" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="L381" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L381" s="7"/>
       <c r="M381" s="2" t="s">
         <v>77</v>
       </c>
@@ -23506,9 +23364,7 @@
         <v>357</v>
       </c>
       <c r="K383" s="2"/>
-      <c r="L383" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L383" s="7"/>
       <c r="M383" s="2" t="s">
         <v>77</v>
       </c>
@@ -23639,46 +23495,44 @@
       <c r="V385" s="2"/>
     </row>
     <row r="386" spans="1:22">
-      <c r="A386" s="2" t="s">
+      <c r="A386" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C386" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D386" s="2"/>
-      <c r="E386" s="2"/>
-      <c r="F386" s="2"/>
-      <c r="G386" s="2"/>
-      <c r="H386" s="2"/>
-      <c r="I386" s="2"/>
-      <c r="J386" s="2" t="s">
+      <c r="C386" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+      <c r="G386" s="5"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="5"/>
+      <c r="J386" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K386" s="2" t="s">
+      <c r="K386" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L386" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M386" s="2" t="s">
+      <c r="L386" s="7"/>
+      <c r="M386" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N386" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O386" s="2"/>
-      <c r="P386" s="2"/>
-      <c r="Q386" s="2"/>
-      <c r="R386" s="2"/>
-      <c r="S386" s="2"/>
-      <c r="T386" s="2"/>
-      <c r="U386" s="2" t="s">
+      <c r="N386" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O386" s="5"/>
+      <c r="P386" s="5"/>
+      <c r="Q386" s="5"/>
+      <c r="R386" s="5"/>
+      <c r="S386" s="5"/>
+      <c r="T386" s="5"/>
+      <c r="U386" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V386" s="2" t="s">
+      <c r="V386" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -23818,9 +23672,7 @@
         <v>357</v>
       </c>
       <c r="K389" s="2"/>
-      <c r="L389" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L389" s="7"/>
       <c r="M389" s="2" t="s">
         <v>81</v>
       </c>
@@ -24044,9 +23896,7 @@
         <v>357</v>
       </c>
       <c r="K393" s="2"/>
-      <c r="L393" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L393" s="7"/>
       <c r="M393" s="2" t="s">
         <v>81</v>
       </c>
@@ -24073,46 +23923,44 @@
       <c r="V393" s="2"/>
     </row>
     <row r="394" spans="1:22">
-      <c r="A394" s="2" t="s">
+      <c r="A394" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C394" s="2" t="s">
+      <c r="C394" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D394" s="2"/>
-      <c r="E394" s="2"/>
-      <c r="F394" s="2"/>
-      <c r="G394" s="2"/>
-      <c r="H394" s="2"/>
-      <c r="I394" s="2"/>
-      <c r="J394" s="2" t="s">
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="5"/>
+      <c r="G394" s="5"/>
+      <c r="H394" s="5"/>
+      <c r="I394" s="5"/>
+      <c r="J394" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K394" s="2" t="s">
+      <c r="K394" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="L394" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M394" s="2" t="s">
+      <c r="L394" s="7"/>
+      <c r="M394" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N394" s="2" t="s">
+      <c r="N394" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O394" s="2"/>
-      <c r="P394" s="2"/>
-      <c r="Q394" s="2"/>
-      <c r="R394" s="2"/>
-      <c r="S394" s="2"/>
-      <c r="T394" s="2"/>
-      <c r="U394" s="2" t="s">
+      <c r="O394" s="5"/>
+      <c r="P394" s="5"/>
+      <c r="Q394" s="5"/>
+      <c r="R394" s="5"/>
+      <c r="S394" s="5"/>
+      <c r="T394" s="5"/>
+      <c r="U394" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V394" s="2" t="s">
+      <c r="V394" s="5" t="s">
         <v>414</v>
       </c>
     </row>
@@ -24221,44 +24069,42 @@
       <c r="V396" s="2"/>
     </row>
     <row r="397" spans="1:22">
-      <c r="A397" s="2" t="s">
+      <c r="A397" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C397" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D397" s="2"/>
-      <c r="E397" s="2"/>
-      <c r="F397" s="2"/>
-      <c r="G397" s="2"/>
-      <c r="H397" s="2"/>
-      <c r="I397" s="2"/>
-      <c r="J397" s="2" t="s">
+      <c r="C397" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D397" s="5"/>
+      <c r="E397" s="5"/>
+      <c r="F397" s="5"/>
+      <c r="G397" s="5"/>
+      <c r="H397" s="5"/>
+      <c r="I397" s="5"/>
+      <c r="J397" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="K397" s="2"/>
-      <c r="L397" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M397" s="2" t="s">
+      <c r="K397" s="5"/>
+      <c r="L397" s="7"/>
+      <c r="M397" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N397" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O397" s="2"/>
-      <c r="P397" s="2"/>
-      <c r="Q397" s="2"/>
-      <c r="R397" s="2"/>
-      <c r="S397" s="2"/>
-      <c r="T397" s="2"/>
-      <c r="U397" s="2" t="s">
+      <c r="N397" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O397" s="5"/>
+      <c r="P397" s="5"/>
+      <c r="Q397" s="5"/>
+      <c r="R397" s="5"/>
+      <c r="S397" s="5"/>
+      <c r="T397" s="5"/>
+      <c r="U397" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="V397" s="2"/>
+      <c r="V397" s="5"/>
     </row>
     <row r="398" spans="1:22">
       <c r="A398" s="2" t="s">
@@ -24469,46 +24315,44 @@
       <c r="V401" s="2"/>
     </row>
     <row r="402" spans="1:22">
-      <c r="A402" s="2" t="s">
+      <c r="A402" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C402" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D402" s="2"/>
-      <c r="E402" s="2"/>
-      <c r="F402" s="2"/>
-      <c r="G402" s="2"/>
-      <c r="H402" s="2"/>
-      <c r="I402" s="2"/>
-      <c r="J402" s="2" t="s">
+      <c r="C402" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D402" s="5"/>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
+      <c r="G402" s="5"/>
+      <c r="H402" s="5"/>
+      <c r="I402" s="5"/>
+      <c r="J402" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K402" s="2" t="s">
+      <c r="K402" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L402" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M402" s="2" t="s">
+      <c r="L402" s="7"/>
+      <c r="M402" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N402" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O402" s="2"/>
-      <c r="P402" s="2"/>
-      <c r="Q402" s="2"/>
-      <c r="R402" s="2"/>
-      <c r="S402" s="2"/>
-      <c r="T402" s="2"/>
-      <c r="U402" s="2" t="s">
+      <c r="N402" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O402" s="5"/>
+      <c r="P402" s="5"/>
+      <c r="Q402" s="5"/>
+      <c r="R402" s="5"/>
+      <c r="S402" s="5"/>
+      <c r="T402" s="5"/>
+      <c r="U402" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V402" s="2" t="s">
+      <c r="V402" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -24650,9 +24494,7 @@
       <c r="K405" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="L405" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L405" s="7"/>
       <c r="M405" s="2" t="s">
         <v>77</v>
       </c>
@@ -24766,9 +24608,7 @@
         <v>357</v>
       </c>
       <c r="K407" s="2"/>
-      <c r="L407" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L407" s="7"/>
       <c r="M407" s="2" t="s">
         <v>77</v>
       </c>
@@ -24899,44 +24739,42 @@
       <c r="V409" s="2"/>
     </row>
     <row r="410" spans="1:22">
-      <c r="A410" s="2" t="s">
+      <c r="A410" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B410" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C410" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D410" s="2"/>
-      <c r="E410" s="2"/>
-      <c r="F410" s="2"/>
-      <c r="G410" s="2"/>
-      <c r="H410" s="2"/>
-      <c r="I410" s="2"/>
-      <c r="J410" s="2" t="s">
+      <c r="C410" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
+      <c r="H410" s="5"/>
+      <c r="I410" s="5"/>
+      <c r="J410" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="K410" s="2"/>
-      <c r="L410" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M410" s="2" t="s">
+      <c r="K410" s="5"/>
+      <c r="L410" s="7"/>
+      <c r="M410" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N410" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O410" s="2"/>
-      <c r="P410" s="2"/>
-      <c r="Q410" s="2"/>
-      <c r="R410" s="2"/>
-      <c r="S410" s="2"/>
-      <c r="T410" s="2"/>
-      <c r="U410" s="2" t="s">
+      <c r="N410" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O410" s="5"/>
+      <c r="P410" s="5"/>
+      <c r="Q410" s="5"/>
+      <c r="R410" s="5"/>
+      <c r="S410" s="5"/>
+      <c r="T410" s="5"/>
+      <c r="U410" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="V410" s="2"/>
+      <c r="V410" s="5"/>
     </row>
     <row r="411" spans="1:22">
       <c r="A411" s="2" t="s">
@@ -25074,9 +24912,7 @@
         <v>357</v>
       </c>
       <c r="K413" s="2"/>
-      <c r="L413" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L413" s="7"/>
       <c r="M413" s="2" t="s">
         <v>81</v>
       </c>
@@ -25300,9 +25136,7 @@
         <v>357</v>
       </c>
       <c r="K417" s="2"/>
-      <c r="L417" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="L417" s="7"/>
       <c r="M417" s="2" t="s">
         <v>81</v>
       </c>
@@ -25329,46 +25163,44 @@
       <c r="V417" s="2"/>
     </row>
     <row r="418" spans="1:22">
-      <c r="A418" s="2" t="s">
+      <c r="A418" s="5" t="s">
         <v>958</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B418" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C418" s="2" t="s">
+      <c r="C418" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
-      <c r="G418" s="2"/>
-      <c r="H418" s="2"/>
-      <c r="I418" s="2"/>
-      <c r="J418" s="2" t="s">
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="5"/>
+      <c r="I418" s="5"/>
+      <c r="J418" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K418" s="2" t="s">
+      <c r="K418" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="L418" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M418" s="2" t="s">
+      <c r="L418" s="7"/>
+      <c r="M418" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N418" s="2" t="s">
+      <c r="N418" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O418" s="2"/>
-      <c r="P418" s="2"/>
-      <c r="Q418" s="2"/>
-      <c r="R418" s="2"/>
-      <c r="S418" s="2"/>
-      <c r="T418" s="2"/>
-      <c r="U418" s="2" t="s">
+      <c r="O418" s="5"/>
+      <c r="P418" s="5"/>
+      <c r="Q418" s="5"/>
+      <c r="R418" s="5"/>
+      <c r="S418" s="5"/>
+      <c r="T418" s="5"/>
+      <c r="U418" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V418" s="2" t="s">
+      <c r="V418" s="5" t="s">
         <v>429</v>
       </c>
     </row>
@@ -25639,46 +25471,44 @@
       </c>
     </row>
     <row r="424" spans="1:22">
-      <c r="A424" s="2" t="s">
+      <c r="A424" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C424" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
-      <c r="H424" s="2"/>
-      <c r="I424" s="2"/>
-      <c r="J424" s="2" t="s">
+      <c r="C424" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="5"/>
+      <c r="I424" s="5"/>
+      <c r="J424" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K424" s="2" t="s">
+      <c r="K424" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L424" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M424" s="2" t="s">
+      <c r="L424" s="7"/>
+      <c r="M424" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N424" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O424" s="2"/>
-      <c r="P424" s="2"/>
-      <c r="Q424" s="2"/>
-      <c r="R424" s="2"/>
-      <c r="S424" s="2"/>
-      <c r="T424" s="2"/>
-      <c r="U424" s="2" t="s">
+      <c r="N424" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O424" s="5"/>
+      <c r="P424" s="5"/>
+      <c r="Q424" s="5"/>
+      <c r="R424" s="5"/>
+      <c r="S424" s="5"/>
+      <c r="T424" s="5"/>
+      <c r="U424" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V424" s="2" t="s">
+      <c r="V424" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -25895,46 +25725,44 @@
       <c r="V428" s="2"/>
     </row>
     <row r="429" spans="1:22">
-      <c r="A429" s="2" t="s">
+      <c r="A429" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B429" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C429" s="2" t="s">
+      <c r="C429" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D429" s="2"/>
-      <c r="E429" s="2"/>
-      <c r="F429" s="2"/>
-      <c r="G429" s="2"/>
-      <c r="H429" s="2"/>
-      <c r="I429" s="2"/>
-      <c r="J429" s="2" t="s">
+      <c r="D429" s="5"/>
+      <c r="E429" s="5"/>
+      <c r="F429" s="5"/>
+      <c r="G429" s="5"/>
+      <c r="H429" s="5"/>
+      <c r="I429" s="5"/>
+      <c r="J429" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K429" s="2" t="s">
+      <c r="K429" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="L429" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M429" s="2" t="s">
+      <c r="L429" s="7"/>
+      <c r="M429" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N429" s="2" t="s">
+      <c r="N429" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O429" s="2"/>
-      <c r="P429" s="2"/>
-      <c r="Q429" s="2"/>
-      <c r="R429" s="2"/>
-      <c r="S429" s="2"/>
-      <c r="T429" s="2"/>
-      <c r="U429" s="2" t="s">
+      <c r="O429" s="5"/>
+      <c r="P429" s="5"/>
+      <c r="Q429" s="5"/>
+      <c r="R429" s="5"/>
+      <c r="S429" s="5"/>
+      <c r="T429" s="5"/>
+      <c r="U429" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="V429" s="2" t="s">
+      <c r="V429" s="5" t="s">
         <v>414</v>
       </c>
     </row>
@@ -26043,44 +25871,42 @@
       <c r="V431" s="2"/>
     </row>
     <row r="432" spans="1:22">
-      <c r="A432" s="2" t="s">
+      <c r="A432" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B432" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C432" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D432" s="2"/>
-      <c r="E432" s="2"/>
-      <c r="F432" s="2"/>
-      <c r="G432" s="2"/>
-      <c r="H432" s="2"/>
-      <c r="I432" s="2"/>
-      <c r="J432" s="2" t="s">
+      <c r="C432" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D432" s="5"/>
+      <c r="E432" s="5"/>
+      <c r="F432" s="5"/>
+      <c r="G432" s="5"/>
+      <c r="H432" s="5"/>
+      <c r="I432" s="5"/>
+      <c r="J432" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="K432" s="2"/>
-      <c r="L432" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M432" s="2" t="s">
+      <c r="K432" s="5"/>
+      <c r="L432" s="7"/>
+      <c r="M432" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N432" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O432" s="2"/>
-      <c r="P432" s="2"/>
-      <c r="Q432" s="2"/>
-      <c r="R432" s="2"/>
-      <c r="S432" s="2"/>
-      <c r="T432" s="2"/>
-      <c r="U432" s="2" t="s">
+      <c r="N432" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O432" s="5"/>
+      <c r="P432" s="5"/>
+      <c r="Q432" s="5"/>
+      <c r="R432" s="5"/>
+      <c r="S432" s="5"/>
+      <c r="T432" s="5"/>
+      <c r="U432" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="V432" s="2"/>
+      <c r="V432" s="5"/>
     </row>
     <row r="433" spans="1:22">
       <c r="A433" s="2" t="s">
